--- a/October 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_October.xlsx
+++ b/October 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\October 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C37FEA9-BC29-400D-99AE-6C3CB3E3C4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F97466-E840-44D0-A7AD-D74598D65C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{B6FA343A-F2CC-4CCA-BA1C-C320E9EA0523}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{91CB80F9-42B9-40F9-837C-1B3E5C14FA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2581053C-7B3F-4BE4-8B10-086A51164D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E2CFF4-B2C5-471E-9F28-FC4887FA1B57}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{943310FF-E32B-43D3-927C-DE403515F5FF}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{0B63E5B9-E64A-4EE4-BACC-840AE4630B8E}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{B5F1917D-0813-424C-87BA-7E9ED8B33279}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{BD114921-7FAD-458C-8F48-7A890F067A37}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{AA0A617A-4C0A-4A32-8226-75309129E819}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{C4A557D3-FB53-4CEA-8CA9-A4F4576B4BC0}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{1EA84E5D-B465-4AEB-B93F-48BCF4FBA69F}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{34F9D3A7-8B12-4DD6-ADFE-E51EC3AAFDFE}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{A075C847-2F56-466D-BA55-DB0E7684D417}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{5C9C9B3B-0BDB-40C4-BF24-F3C52BD59D63}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{A325F63B-1360-47E2-A5F1-DA7CAC1F24FC}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{A363C19A-3984-4218-A8B6-8A36B1668969}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{E9E23ADE-09F3-481C-83E5-57AAD3A1EBC8}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{3E1DAB29-F01E-445E-AB4A-3F89DCEF7BD6}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{D596B36F-A77A-43D2-BA47-5BB2C51A0C4B}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{7C90BEC6-B4B3-45CA-9D55-3D08D88982A5}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{BB4D583B-BC66-4676-8445-C0075AD3C9B2}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{B0DE31E2-BB37-47E3-BE45-E3069E389ED3}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{740CE141-8C8F-4CC9-B9A2-17295711384D}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{949377E1-AF98-4699-A317-183AEBBF7048}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{BFEAA4FA-8E8A-4CEC-A2CE-C45EAAD8B79D}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{8B86EC41-13ED-4359-8CFF-E39871029992}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{B214BFD1-F9BA-4BFF-9442-A2BB6272740D}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{E4813C89-C5D4-4B72-8C86-0F80B9E68574}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{6DB701AF-0197-4705-81CF-1630B7EF351D}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{B9ACC4B3-0C0F-463B-A115-6E735F95733D}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{84C1E17C-6D54-478C-B6CE-CC3BCA581BBE}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{697C52EF-D0A6-4B05-B96B-84F4275E8C95}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{8664CF53-3BD7-43D3-B1CC-420C77310938}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{93CC4CED-1021-403F-B11E-C3DC85018982}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{CD28BF24-BFB7-46FB-B711-4C0CEECFBAEA}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{2E366346-FAE3-4391-BE01-98B8AA2BABA4}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{E4FB4007-2A7D-447F-8352-0236B9340449}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{88F97D2A-6FC6-4349-86F1-1E00D2861FF6}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{863E8A78-E11B-4D55-90A7-F487D562D8D0}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{61222917-BE19-4D88-9F47-C18F849F1764}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{7EB5C838-174F-496E-BDAD-630E094861CB}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{1EA1AE05-2D47-4E12-87D7-3DB4866E048C}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{0AACFC8F-6620-4EAD-AB3F-BB5104E69618}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{DBCCB305-FE92-4C03-92BE-F9B282D6DCAB}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{14CAC44A-7771-4A55-860B-7A2589380B1C}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{06C7986A-79A1-4453-A9E3-241161E21457}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{44A1F0C4-B5A0-4054-941E-79C00A9310E0}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{FB91810E-B8CE-4119-ABD8-CBB23FBFAEA0}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{DBF143C5-A1E9-47C3-B2B8-FB665C6AD94C}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{A2EFCA70-6547-412E-8A78-BB5E754D4D55}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{6727851F-AAF8-479D-9FB4-54DAC500FDF2}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{51EB96B5-6EFF-46DC-A497-9997D91F1419}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{66FDB9BE-23A3-476D-B7D2-767BF135AF70}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{C019BFA2-17FB-44C3-A426-38C66B97F119}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{023BBAD2-639D-4EFE-B176-011237847EE2}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{DD3B6F2A-E444-4A55-ADE0-B3FF06170D58}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{ACEC4B29-4A82-441D-AEC2-9EE2D64AC009}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{06867C16-248C-4A55-B19B-CCB015E20FD3}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{BFD6D03C-7691-4569-A066-0680C5DD45D5}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{A1AB783F-107C-4B6C-8D9E-C1C207B5D744}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{315E9F8A-7D91-45BE-87E3-A2F786D17635}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{BF50870F-134D-4076-817F-074CE4C68267}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{D407FFB6-0EB2-4ED7-A114-F26E1B5186FE}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{3D4EB5E5-17BB-40A8-A5C0-4FF6AB6BDAAE}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{AD6AED75-6408-4B1E-9AA3-02C8DB81BACB}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{D64A1C34-F344-4CBC-9178-651BC60DAAFE}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{525A68A4-1B9A-44B1-A201-8F4C7767F7AE}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{27604933-37CB-4E04-B28F-D28BCFC1B092}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{11E20C68-425D-40B0-BA8C-D9A416266DBB}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{5793A73C-9E47-4180-81CF-27B9971ECC92}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{E4E717DF-B77E-4B47-B68A-56E22DF6F2B5}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{02F74ADE-D432-4D12-B0E0-DF5E2F7CA3C8}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{171BF158-7546-46AB-BCDC-68A7DD47F52B}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{3A9BAA3D-525B-4CFD-ACA4-9599961D7B8A}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{717C2FD4-B784-47FA-92C4-9F8B84453B55}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{8D385BD3-43FB-4193-9EE6-4E38D616A23E}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{8568628F-3A9D-4387-9091-34751D2D298F}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{472DF5E1-DF39-41EA-BC3E-C801B79CAFEE}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{DD094FD5-F889-444F-A9E8-E6597C8C1458}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{EF772C59-5A55-43F9-8C9B-05CEE839663E}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{7BCF1A37-D646-48C4-8520-912E7CBC2D41}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{C462C9B5-FA47-44B9-B04F-69F8BBBACC3D}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{E80E6489-8409-4699-9F7F-3C3E7E3E9F86}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{FDCABD99-5727-4BFA-BA22-0F1BB4E519F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D35B5-5391-462F-8558-B4D8EC1D5C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E2643-A4E0-4203-A28D-3735E19F3713}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{BAAACBCF-3301-4807-9805-FAA367782EFF}"/>
+  <autoFilter ref="A3:E6" xr:uid="{C9035964-9580-4722-B2A2-AE221F4A6D0B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{224C0AC0-C44C-4CAD-9C5F-370F8A727DA8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8FD7A1D7-4C6C-413F-82F9-B3A138232102}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58A7E1D-9F23-47D5-AC9E-F479CE2A24EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A11AA1-CCB1-4401-B164-AD52B44E785A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{664A19DC-27F0-416A-97CC-1C05658AA0A2}"/>
+  <autoFilter ref="A3:E6" xr:uid="{35886D76-B42D-4FB2-9E5C-470CA3FFDA86}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F6C744DD-89FC-4457-BB55-7ADDAD57FC6B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8EC4428F-BD1C-44F0-963E-B0E113009208}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7C125-0362-4926-8D3E-176E9439806F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34828F3-4927-4500-8B46-25BD2D1E0968}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{06558DBC-736B-4E50-B98C-D873EB774843}"/>
+  <autoFilter ref="A3:F9" xr:uid="{2B73EEF2-CF0B-4182-A18B-620EEAB3AF67}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5DF285AA-796E-45F9-AA6A-87DC94993B26}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{829BE6F7-B86F-4778-A6F6-206CB04F2D04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60757041-D0BC-46CC-A925-FF5325B7B100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A31498F-6B86-45BC-A385-638D360F69B6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{A242E624-73D5-45EA-9F0A-AAF662BEBD0E}"/>
+  <autoFilter ref="A3:B5" xr:uid="{EE52E1EF-83C2-475C-AFB2-16A5A8DD9F85}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C3269581-1BE4-4C32-9980-2914D9CABBFE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7C81818D-78D3-47AA-B3CB-0BE721CCEE50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3A701-9025-4654-9646-7BE6B3A3E0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1176CC4C-812E-4BA9-8A91-3E1BFED10372}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{73E3E3E4-B76D-4560-9427-5109BEEF3221}"/>
+  <autoFilter ref="A3:A5" xr:uid="{C6DAE647-DFDE-4A3A-93DC-A4FC372AF5A1}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{696384CE-78F0-4DB1-9BE9-89CF87C8882E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DC213C03-AEF2-4718-B970-F1D86CF82F15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A1F15-F028-45D6-A9CC-C5914DCD2C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BAF2B-41E6-4189-AAF3-67A08EEE68D0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{6562A281-EC64-4530-9B94-E402C0F11229}"/>
+  <autoFilter ref="A3:B6" xr:uid="{101277FF-A739-46BA-AFB9-3B63E738A432}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F7BBFA83-DCB9-4A78-9FF8-F02C0ECA29FB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DB6E3253-5A8E-451A-8F8A-397FA4332F0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB331195-25BB-4201-A8D1-1C7105FCFCB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6E6B2-FC4A-41D7-B803-3C0EEB581AFD}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{514182AB-6E58-44C3-838C-ABAC49ED52FC}"/>
+  <autoFilter ref="A3:C9" xr:uid="{7B6BE679-07B0-437E-9436-545C41289E27}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5D2CFC4D-5F6E-4BB5-8660-6A9FA16808CE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3832F56B-43D6-4D2F-88A7-661971088F8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57EC820-4C46-46CB-9B97-BEE3F174EFFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02C2705-1557-4CC5-A53B-E8F5A5FF54C9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{E73762D5-612E-4332-B85B-F8D1B1FF6F6F}"/>
+  <autoFilter ref="A3:A5" xr:uid="{4393E0DA-428B-41B5-B93C-C08049A759CE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D4EBA2CA-1624-40D8-B248-2E3EF103F707}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{73E68523-95AB-4B27-8FF7-1EB31CE24DE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F94543-4BC0-4B50-B7EE-72DCEAA71A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36070ED6-EEF8-4C68-A1FF-8F289274578F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{183D1852-EBDE-430B-8143-F0367438730A}"/>
+  <autoFilter ref="A3:C9" xr:uid="{53D7E301-0349-4C36-A76E-9608813AB41B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{497D0F6D-0AB9-4791-A131-686FB908A725}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{71C0144E-7467-41BF-8C5A-E3B960C00071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA880FC-B705-4435-8B0E-24E9C3EAD75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA27FD-D701-40AB-A621-E8F57B069AAD}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{22EF6F26-FC86-4500-AF99-C127DF072944}"/>
+  <autoFilter ref="A3:C9" xr:uid="{D28A7BAC-B7F5-46AB-89C5-56D32634801A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{473F7BE2-9787-458F-9F1C-B65A95BC71D4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0D5849A0-1FDD-4232-8F59-C49E17D4D338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA619733-46A9-4A0C-9B16-8AC876FF3A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C39B15F-03D1-433A-BCDB-9BE2749C1C88}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>14462778.53189088</v>
+        <v>16924577.632935278</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{933BFCDF-F783-467D-94DF-812EF805602D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E84D276A-1FB7-4AEE-B278-122926C9D24D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8ED34F-5BCF-40DF-8024-CBF78AF0FE16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C6C04D-79AD-4119-994D-EF4946B56327}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{4D5DD998-C104-4125-83E9-AA3F4C06A6E0}"/>
+  <autoFilter ref="A3:A6" xr:uid="{259EE4E8-3081-41D2-B275-965AE2E725B2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BE73E674-52DD-4DC2-B3C2-9ABD746D30ED}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F1819A5D-B53D-4494-BA6A-19DD438AB0EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A73EB1F-61F4-4D2A-B54C-67ED419EB20F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4349A6F2-8C08-4EDA-9D88-793BDA336522}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{1D89E64E-3802-47A2-9D14-DF284EBBE0E3}"/>
+  <autoFilter ref="A3:B5" xr:uid="{0E3F0E7E-F74B-43D4-9594-F0A4C6632B28}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C98EBBC0-C161-4515-845C-9D7246B593D6}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1F8F0F35-12B8-4339-994C-46C07CAE6664}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E442EB-046A-49FA-AEF0-4F59B9D91315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD6FF16-4C3B-4BB5-A76D-2B32FE5CF54E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>65.239999999999995</v>
+        <v>47.17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>47.17</v>
+        <v>65.239999999999995</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{48B7E9B6-9A2A-48C1-839F-B0514C8F2FEE}"/>
+  <autoFilter ref="A3:C9" xr:uid="{419A1755-E545-4903-BE3D-0F7B24BB5706}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D04693A7-E5C6-41FA-AD54-5AE2187E813B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B250E53B-80BD-428F-BF1A-33254B8B6850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3771C9-79EF-4FA1-9E17-162EF0E66B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD8E1D-C7E0-4C2C-9FB7-61B1FB3E5AA0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>260.95999999999998</v>
+        <v>188.68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1084.9100000000001</v>
+        <v>1500.52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{680F6E5E-1F7D-4C77-BF07-65D3331AC2CD}"/>
+  <autoFilter ref="A3:F9" xr:uid="{0D413726-B8FB-4001-BF3E-B30E65FAD7F9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F5A5584D-85A5-4B74-ACD6-2BF6BADE417C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A368B6BD-82C2-46A8-B641-AC1F1322613E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342ABFE2-398D-4ADB-95E7-C6F0CBA40F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6CCCB3-A070-4A1A-954F-EA5F314A3F06}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>9894.65</v>
       </c>
       <c r="F5">
-        <v>155.11462399999999</v>
+        <v>112.15139200000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>11686.05</v>
       </c>
       <c r="F9">
-        <v>644.8705040000001</v>
+        <v>891.909088</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{6E5E3E10-504F-4646-B6F5-1DE0CAB5C6B2}"/>
+  <autoFilter ref="A3:F9" xr:uid="{88F89D2B-DC5D-4963-897A-0B89ABF25488}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9113973B-171C-4A23-BCA6-F754C1F95641}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9CEE0580-4E8B-485B-B579-4F07C6C25AEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48828438-E55F-4B7C-8D61-56B6BC6FF722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE79E8-13C3-4FEF-8B73-7B46C2B06894}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{B2759B14-F163-48DF-97C0-9255FD8F643F}"/>
+  <autoFilter ref="A3:F9" xr:uid="{6CB14501-CEDC-42EA-BDC0-347C774A59D8}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4414B51B-BD2F-4EBE-99EA-37DC88938F91}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6F6F47C6-28EB-48D2-870E-D749B81A25FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A758262-2FAA-49E5-BEC3-389B6E88ECD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC17B7D-B7D9-4914-A2FB-2F0F12806BC8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{25CAB907-4128-4CE5-857B-5A22B3F0869C}"/>
+  <autoFilter ref="A3:F9" xr:uid="{EB85420D-9B48-4AC2-A566-9674511F45B6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{626F4F91-DC99-4320-B24A-A6B9B7C044C2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D8D84D0A-DBB2-473B-9F48-49EAA8D0FAC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
